--- a/約定履歴.xlsx
+++ b/約定履歴.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sator\OneDrive\ドキュメント\03_資産運用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="11_D1A6EF59BEF6A9B31B753D4E080DF79C03FB5B57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7BD5CCE-1B68-FD4B-AC26-FE635933832B}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="11_D1A6EF59BEF6A9B31B753D4E080DF79C03FB5B57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{168DD85A-826F-AE40-A31C-9BDDE4B5DB33}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="325">
   <si>
     <t>銘柄コード</t>
     <rPh sb="0" eb="2">
@@ -1404,6 +1404,12 @@
   <si>
     <t>双日</t>
   </si>
+  <si>
+    <t>8725</t>
+  </si>
+  <si>
+    <t>MS &amp;AD</t>
+  </si>
 </sst>
 </file>
 
@@ -1778,11 +1784,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="ハイパーリンク" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -3412,10 +3418,10 @@
   <dimension ref="B2:W1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F128" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomRight" activeCell="B161" sqref="B161"/>
+      <selection pane="bottomRight" activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13.5" x14ac:dyDescent="0.1"/>
@@ -3535,7 +3541,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="32">
         <f>SUM(K5:K1001)</f>
-        <v>49358137.931999996</v>
+        <v>49944737.931999996</v>
       </c>
       <c r="L4" s="53"/>
       <c r="M4" s="33"/>
@@ -3545,11 +3551,11 @@
       <c r="Q4" s="34"/>
       <c r="R4" s="35">
         <f>SUM(R5:R1001)</f>
-        <v>40351554</v>
+        <v>41533354</v>
       </c>
       <c r="S4" s="36">
         <f>SUM(S5:S1001)</f>
-        <v>2420106</v>
+        <v>2486456</v>
       </c>
       <c r="T4" s="37" t="e">
         <f>AVERAGE(T5:T1001)</f>
@@ -11032,33 +11038,39 @@
         <f t="shared" si="17"/>
         <v>218550</v>
       </c>
-      <c r="L123" s="50"/>
-      <c r="M123" s="42"/>
-      <c r="N123" s="43"/>
+      <c r="L123" s="50">
+        <v>45632</v>
+      </c>
+      <c r="M123" s="42">
+        <v>100</v>
+      </c>
+      <c r="N123" s="43">
+        <v>2266</v>
+      </c>
       <c r="O123" s="44">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>226600</v>
       </c>
       <c r="P123" s="45"/>
       <c r="Q123" s="45"/>
       <c r="R123" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S123" s="44" t="str">
+        <v>226600</v>
+      </c>
+      <c r="S123" s="44">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="T123" s="46" t="str">
+        <v>8050</v>
+      </c>
+      <c r="T123" s="46">
         <f t="shared" si="21"/>
-        <v/>
+        <v>3.6833676504232443E-2</v>
       </c>
       <c r="U123" s="47" t="s">
         <v>289</v>
       </c>
-      <c r="W123" s="18" t="str">
+      <c r="W123" s="18">
         <f t="shared" si="15"/>
-        <v/>
+        <v>2024</v>
       </c>
     </row>
     <row r="124" spans="2:23" x14ac:dyDescent="0.1">
@@ -11482,31 +11494,37 @@
         <f t="shared" si="17"/>
         <v>465700</v>
       </c>
-      <c r="L130" s="50"/>
-      <c r="M130" s="42"/>
-      <c r="N130" s="43"/>
+      <c r="L130" s="50">
+        <v>45630</v>
+      </c>
+      <c r="M130" s="42">
+        <v>100</v>
+      </c>
+      <c r="N130" s="43">
+        <v>5020</v>
+      </c>
       <c r="O130" s="44">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>502000</v>
       </c>
       <c r="P130" s="45"/>
       <c r="Q130" s="45"/>
       <c r="R130" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S130" s="44" t="str">
+        <v>502000</v>
+      </c>
+      <c r="S130" s="44">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="T130" s="46" t="str">
+        <v>36300</v>
+      </c>
+      <c r="T130" s="46">
         <f t="shared" si="21"/>
-        <v/>
+        <v>7.7947176293751336E-2</v>
       </c>
       <c r="U130" s="47"/>
-      <c r="W130" s="18" t="str">
+      <c r="W130" s="18">
         <f t="shared" si="15"/>
-        <v/>
+        <v>2024</v>
       </c>
     </row>
     <row r="131" spans="2:23" x14ac:dyDescent="0.1">
@@ -12161,31 +12179,37 @@
         <f t="shared" si="17"/>
         <v>220700</v>
       </c>
-      <c r="L141" s="50"/>
-      <c r="M141" s="42"/>
-      <c r="N141" s="43"/>
+      <c r="L141" s="50">
+        <v>45632</v>
+      </c>
+      <c r="M141" s="42">
+        <v>100</v>
+      </c>
+      <c r="N141" s="43">
+        <v>2266</v>
+      </c>
       <c r="O141" s="44">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>226600</v>
       </c>
       <c r="P141" s="45"/>
       <c r="Q141" s="45"/>
       <c r="R141" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S141" s="44" t="str">
+        <v>226600</v>
+      </c>
+      <c r="S141" s="44">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="T141" s="46" t="str">
+        <v>5900</v>
+      </c>
+      <c r="T141" s="46">
         <f t="shared" si="21"/>
-        <v/>
+        <v>2.6733121884911646E-2</v>
       </c>
       <c r="U141" s="47"/>
-      <c r="W141" s="18" t="str">
+      <c r="W141" s="18">
         <f t="shared" si="29"/>
-        <v/>
+        <v>2024</v>
       </c>
     </row>
     <row r="142" spans="2:23" x14ac:dyDescent="0.1">
@@ -12281,31 +12305,37 @@
         <f t="shared" si="17"/>
         <v>210500</v>
       </c>
-      <c r="L143" s="50"/>
-      <c r="M143" s="42"/>
-      <c r="N143" s="43"/>
+      <c r="L143" s="50">
+        <v>45632</v>
+      </c>
+      <c r="M143" s="42">
+        <v>100</v>
+      </c>
+      <c r="N143" s="43">
+        <v>2266</v>
+      </c>
       <c r="O143" s="44">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>226600</v>
       </c>
       <c r="P143" s="45"/>
       <c r="Q143" s="45"/>
       <c r="R143" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S143" s="44" t="str">
+        <v>226600</v>
+      </c>
+      <c r="S143" s="44">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="T143" s="46" t="str">
+        <v>16100</v>
+      </c>
+      <c r="T143" s="46">
         <f t="shared" si="21"/>
-        <v/>
+        <v>7.6484560570071261E-2</v>
       </c>
       <c r="U143" s="47"/>
-      <c r="W143" s="18" t="str">
+      <c r="W143" s="18">
         <f t="shared" si="29"/>
-        <v/>
+        <v>2024</v>
       </c>
     </row>
     <row r="144" spans="2:23" x14ac:dyDescent="0.1">
@@ -13279,21 +13309,33 @@
       </c>
     </row>
     <row r="161" spans="2:23" x14ac:dyDescent="0.1">
-      <c r="B161" s="39"/>
-      <c r="C161" s="50"/>
-      <c r="D161" s="40"/>
-      <c r="E161" s="41"/>
-      <c r="F161" s="42"/>
-      <c r="G161" s="43"/>
+      <c r="B161" s="39">
+        <v>156</v>
+      </c>
+      <c r="C161" s="50">
+        <v>45628</v>
+      </c>
+      <c r="D161" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="E161" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="F161" s="42">
+        <v>100</v>
+      </c>
+      <c r="G161" s="43">
+        <v>3341</v>
+      </c>
       <c r="H161" s="44">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>334100</v>
       </c>
       <c r="I161" s="45"/>
       <c r="J161" s="45"/>
       <c r="K161" s="44">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>334100</v>
       </c>
       <c r="L161" s="50"/>
       <c r="M161" s="42"/>
@@ -13323,21 +13365,33 @@
       </c>
     </row>
     <row r="162" spans="2:23" x14ac:dyDescent="0.1">
-      <c r="B162" s="39"/>
-      <c r="C162" s="50"/>
-      <c r="D162" s="40"/>
-      <c r="E162" s="41"/>
-      <c r="F162" s="42"/>
-      <c r="G162" s="43"/>
+      <c r="B162" s="39">
+        <v>157</v>
+      </c>
+      <c r="C162" s="50">
+        <v>45628</v>
+      </c>
+      <c r="D162" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="E162" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="F162" s="42">
+        <v>100</v>
+      </c>
+      <c r="G162" s="43">
+        <v>2525</v>
+      </c>
       <c r="H162" s="44">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>252500</v>
       </c>
       <c r="I162" s="45"/>
       <c r="J162" s="45"/>
       <c r="K162" s="44">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>252500</v>
       </c>
       <c r="L162" s="50"/>
       <c r="M162" s="42"/>
@@ -29913,11 +29967,11 @@
       </c>
       <c r="D42" s="18">
         <f>COUNTIF(約定履歴!$W$5:$W$1001,サマリ!C42)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E42" s="19">
         <f>SUMIF(約定履歴!$W$5:$W$1001,サマリ!C42,約定履歴!$S$5:$S$1001)</f>
-        <v>514770</v>
+        <v>581120</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.1">
